--- a/data/trans_bre/P25A_N_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25A_N_R2-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +584,42 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,17 +652,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,29</t>
+          <t>4,97</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,91</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,84</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -640,22 +672,42 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>192,5%</t>
+          <t>6,95</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>154,7%</t>
+          <t>9,32</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>74,12%</t>
+          <t>181,91%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>425,93%</t>
+          <t>65,06%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>38,51%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>425,94%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>94,5%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>201,89%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,18; 11,17</t>
+          <t>0,92; 10,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 8,32</t>
+          <t>-4,51; 7,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 7,42</t>
+          <t>-4,88; 7,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,09; 25,17</t>
+          <t>8,03; 25,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-14,92; 1287,09</t>
+          <t>-1,22; 15,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-27,72; 1037,65</t>
+          <t>1,44; 17,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-34,15; 458,18</t>
+          <t>-5,17; 1167,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>93,42; 1970,0</t>
+          <t>-60,6; 543,13</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-58,11; 378,02</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>101,5; 1816,01</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-16,34; 433,07</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-15,38; 1108,39</t>
         </is>
       </c>
     </row>
@@ -720,17 +792,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,31</t>
+          <t>3,1</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>3,58</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -740,22 +812,42 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>79,79%</t>
+          <t>9,73</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>86,39%</t>
+          <t>8,42</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>45,6%</t>
+          <t>72,45%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>37,89%</t>
+          <t>90,88%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>42,5%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>37,85%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>82,43%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>86,85%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 8,17</t>
+          <t>-1,38; 8,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 8,2</t>
+          <t>-1,43; 7,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 6,46</t>
+          <t>-2,1; 6,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 9,95</t>
+          <t>-4,26; 10,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-35,62; 372,14</t>
+          <t>1,28; 19,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-23,77; 440,13</t>
+          <t>0,84; 16,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-35,98; 193,97</t>
+          <t>-33,77; 347,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-29,95; 189,73</t>
+          <t>-32,77; 353,07</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-29,75; 270,23</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-30,43; 210,96</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>6,31; 273,95</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>4,29; 282,33</t>
         </is>
       </c>
     </row>
@@ -820,17 +932,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,23</t>
+          <t>5,52</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,24</t>
+          <t>3,11</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,85</t>
+          <t>8,92</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -840,22 +952,42 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>170,73%</t>
+          <t>13,16</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>41,82%</t>
+          <t>13,65</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>273,22%</t>
+          <t>117,27%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>62,78%</t>
+          <t>40,12%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>279,85%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>62,79%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>105,34%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>275,37%</t>
         </is>
       </c>
     </row>
@@ -868,42 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,13; 13,22</t>
+          <t>1,11; 9,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 7,48</t>
+          <t>-1,13; 7,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,0; 12,5</t>
+          <t>5,48; 12,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 11,05</t>
+          <t>-0,79; 11,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>40,41; 539,01</t>
+          <t>5,06; 21,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,22; 136,84</t>
+          <t>8,67; 19,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>92,62; 620,62</t>
+          <t>5,89; 332,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,13; 181,6</t>
+          <t>-13,59; 140,79</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>111,27; 646,15</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-6,17; 193,06</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>29,2; 240,09</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>108,02; 639,96</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,39</t>
+          <t>5,43</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,31</t>
+          <t>5,23</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,56</t>
+          <t>6,52</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,2</t>
+          <t>10,19</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>67,23%</t>
+          <t>12,5</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>63,26%</t>
+          <t>12,34</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>62,15%</t>
+          <t>64,49%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>83,29%</t>
+          <t>61,19%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>60,5%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>83,24%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>91,97%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>110,65%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 10,89</t>
+          <t>-0,8; 10,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,56; 10,13</t>
+          <t>0,61; 10,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,58; 11,73</t>
+          <t>0,82; 11,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,99; 17,42</t>
+          <t>2,0; 17,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 196,75</t>
+          <t>4,77; 19,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,13; 161,81</t>
+          <t>6,31; 18,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,56; 138,89</t>
+          <t>-10,03; 183,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,44; 192,91</t>
+          <t>2,29; 157,49</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>3,54; 133,86</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>11,04; 187,04</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>24,08; 183,43</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>43,92; 234,29</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7,12</t>
+          <t>7,27</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>10,94</t>
+          <t>10,69</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,85</t>
+          <t>5,47</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>11,18</t>
+          <t>11,19</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>61,87%</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>115,51%</t>
+          <t>14,26</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>44,82%</t>
+          <t>59,99%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>50,2%</t>
+          <t>109,31%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>40,84%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>50,23%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>5,23%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>99,24%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,16; 13,54</t>
+          <t>0,82; 13,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,82; 17,42</t>
+          <t>4,32; 16,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 12,75</t>
+          <t>-1,54; 11,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,8; 20,14</t>
+          <t>2,69; 20,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,45; 152,92</t>
+          <t>-8,74; 9,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>38,41; 236,81</t>
+          <t>6,17; 22,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 129,83</t>
+          <t>3,64; 156,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,3; 115,75</t>
+          <t>29,65; 225,35</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-10,07; 107,69</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>10,35; 117,47</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-26,7; 43,12</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>34,38; 199,75</t>
         </is>
       </c>
     </row>
@@ -1120,17 +1352,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>12,02</t>
+          <t>12,23</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>7,11</t>
+          <t>7,78</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>9,64</t>
+          <t>11,38</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1140,22 +1372,42 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>66,65%</t>
+          <t>18,29</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>42,86%</t>
+          <t>17,32</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>66,69%</t>
+          <t>66,03%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>84,2%</t>
+          <t>47,22%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>79,87%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>84,23%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>105,72%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>125,6%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,3; 22,34</t>
+          <t>2,69; 21,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 14,59</t>
+          <t>-0,96; 14,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,1; 17,89</t>
+          <t>3,97; 20,66</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,39; 18,88</t>
+          <t>0,52; 18,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,23; 174,39</t>
+          <t>7,9; 28,41</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-10,5; 119,48</t>
+          <t>6,37; 27,72</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,99; 187,27</t>
+          <t>9,45; 160,21</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 237,51</t>
+          <t>-6,87; 118,82</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>19,96; 201,13</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>2,8; 269,19</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>33,79; 231,23</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>30,65; 284,42</t>
         </is>
       </c>
     </row>
@@ -1220,17 +1492,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7,59</t>
+          <t>7,25</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,04</t>
+          <t>5,9</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,69</t>
+          <t>6,83</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1240,22 +1512,42 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>95,66%</t>
+          <t>11,44</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>74,84%</t>
+          <t>13,1</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>82,4%</t>
+          <t>87,47%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
+          <t>70,76%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>81,48%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
           <t>83,64%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>77,67%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>135,21%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,76; 10,32</t>
+          <t>4,47; 10,2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,65; 8,36</t>
+          <t>3,56; 8,16</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,16; 8,93</t>
+          <t>4,29; 9,24</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,79; 12,38</t>
+          <t>6,32; 12,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>50,2; 153,82</t>
+          <t>8,25; 15,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>37,67; 121,0</t>
+          <t>10,09; 17,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>43,22; 125,36</t>
+          <t>42,11; 143,31</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>44,98; 125,98</t>
+          <t>35,6; 111,88</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>44,46; 124,88</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>48,92; 128,55</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>50,22; 119,76</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>87,58; 199,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
